--- a/biology/Mycologie/Anthostoma_decipiens/Anthostoma_decipiens.xlsx
+++ b/biology/Mycologie/Anthostoma_decipiens/Anthostoma_decipiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthostoma decipiens est un champignon ascomycète de l'Ordre des Xylariales.
 </t>
@@ -511,13 +523,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Botryosphaeria decipiens (DC.) Cooke[1]
-Cryptosphaeria decipiens (Lam. &amp; DC.) Laessøe &amp; Spooner[1]
-Cytospora decipiens Sacc.[1]
-Lopadostoma decipiens (DC.) P.M.D. Martin[1]
-Sphaeria decipiens DC.[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Botryosphaeria decipiens (DC.) Cooke
+Cryptosphaeria decipiens (Lam. &amp; DC.) Laessøe &amp; Spooner
+Cytospora decipiens Sacc.
+Lopadostoma decipiens (DC.) P.M.D. Martin
+Sphaeria decipiens DC.</t>
         </is>
       </c>
     </row>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecorces de charmes (Carpinus).
 </t>
